--- a/fuentes/contenidos/grado08/guion11/Solicitudes grAficas_MA_08_11_CO/MA_08_11_CO_REC90.xlsx
+++ b/fuentes/contenidos/grado08/guion11/Solicitudes grAficas_MA_08_11_CO/MA_08_11_CO_REC90.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="206">
   <si>
     <t>Fecha:</t>
   </si>
@@ -593,157 +593,58 @@
     <t>La estadistica</t>
   </si>
   <si>
-    <t>MA_08_11_REC90</t>
-  </si>
-  <si>
     <t>REDES SOCIALES</t>
   </si>
   <si>
     <t>Ilustración</t>
   </si>
   <si>
-    <t>TABLA REDES SOCIALES</t>
-  </si>
-  <si>
     <t>REDES A</t>
   </si>
   <si>
-    <t>GRAFICO DE BARRAS REDES OPCION A</t>
-  </si>
-  <si>
     <t>REDES B</t>
   </si>
   <si>
-    <t>GRAFICO DE BARRAS REDES OPCION B</t>
-  </si>
-  <si>
     <t>REDES C</t>
   </si>
   <si>
-    <t>GRAFICO DE BARRAS REDES OPCION C</t>
-  </si>
-  <si>
     <t>CANDIDATOS</t>
   </si>
   <si>
-    <t>SEGUNDO EJERCICIO PROPUESTO CANDIDATOS TABLA</t>
-  </si>
-  <si>
     <t>CANDIDATOS A</t>
   </si>
   <si>
     <t>CANDIDATOS B</t>
   </si>
   <si>
-    <t>GRAFICA CIRCULAR CANDIDATOS OPCION A</t>
-  </si>
-  <si>
-    <t>GRAFICA CIRCULAR CANDIDATOS OPCION B</t>
-  </si>
-  <si>
-    <t>GRAFICA CIRCULAR CANDIDATOS OPCION C</t>
-  </si>
-  <si>
     <t>CANDIDATOS C</t>
   </si>
   <si>
     <t>FUTBOLISTAS</t>
   </si>
   <si>
-    <t>TERCER EJERCICIO PRPOUESTO TABLA FUTBOLISTAS</t>
-  </si>
-  <si>
-    <t>FUTBOLISTAS A</t>
-  </si>
-  <si>
-    <t>GRAFICA DE BARRAS FUTBOLISTAS OPCION A</t>
-  </si>
-  <si>
-    <t>FUTBOLISTAS B</t>
-  </si>
-  <si>
-    <t>FUTBOLISTAS C</t>
-  </si>
-  <si>
-    <t>GRAFICA DE BARRAS FUTBOLISTAS OPCION B</t>
-  </si>
-  <si>
-    <t>GRAFICA DE BARRAS FUTBOLISTAS OPCION C</t>
-  </si>
-  <si>
-    <t>DEPORTISTAS</t>
-  </si>
-  <si>
-    <t>CUARTO EJERCICIO TABLA DEPORTISTAS</t>
-  </si>
-  <si>
-    <t>DEPORTISTAS A</t>
-  </si>
-  <si>
-    <t>DIAGRAMA CIRCULAR DEPORTISTAS OPCION A</t>
-  </si>
-  <si>
-    <t>DEPORTISTAS B</t>
-  </si>
-  <si>
-    <t>DEPORTISTAS C</t>
-  </si>
-  <si>
-    <t>DRIAGRAMA CIRCULAR DEPORTITAS OPCION C</t>
-  </si>
-  <si>
-    <t>DIAGRAMA CIRCULAR DEPORTISTAS OPCION B</t>
-  </si>
-  <si>
-    <t>ACTIVIDAD</t>
-  </si>
-  <si>
-    <t>QUINTO EJERCICIO TABLA ACTIVIDAD</t>
-  </si>
-  <si>
-    <t>ACTIVIDAD A</t>
-  </si>
-  <si>
-    <t>GRAFICA CIRCULAR ACTIVIDAD A</t>
-  </si>
-  <si>
-    <t>ACTIVIDAD C</t>
-  </si>
-  <si>
-    <t>ACTIVIDAD B</t>
-  </si>
-  <si>
-    <t>GRAFICA CIRCULAR ACTIVIDAD B</t>
-  </si>
-  <si>
-    <t>GRAFICA CIRCULAR ACTIVIDAD C</t>
-  </si>
-  <si>
-    <t>SERVICIO</t>
-  </si>
-  <si>
-    <t>SEXTO EJERCICIO SERVCIOS TABLA</t>
-  </si>
-  <si>
-    <t>GRAFICA DE BARRAS SERVICIO OPCION A</t>
-  </si>
-  <si>
-    <t>SERVICIO A</t>
-  </si>
-  <si>
-    <t>SERVICIO B</t>
-  </si>
-  <si>
-    <t>SERVICIO C</t>
-  </si>
-  <si>
-    <t>GRAFICA DE BARRAS SERVICIO OPCION B</t>
-  </si>
-  <si>
-    <t>GRAFICA DE BARRAS SERVICIO OPCION C</t>
-  </si>
-  <si>
     <t>Josué Malagón</t>
+  </si>
+  <si>
+    <t>Pregunta 1, la tabla se encuentra en el archivo Word adjunto, ajustar tamaño de las gráficas para que se vean bien en la imagen.</t>
+  </si>
+  <si>
+    <t>Archivo adjunto en el correo</t>
+  </si>
+  <si>
+    <t>MA_08_11_CO_REC90</t>
+  </si>
+  <si>
+    <t>Pregunta 2, la tabla se encuentra en el archivo Word adjunto, ajustar tamaño de las gráficas para que se vean bien en la imagen.</t>
+  </si>
+  <si>
+    <t>Pregunta 3, la tabla se encuentra en el archivo Word adjunto, ajustar tamaño de las gráficas para que se vean bien en la imagen.</t>
+  </si>
+  <si>
+    <t>Pregunta 4, la tabla se encuentra en el archivo Word adjunto, ajustar tamaño de las gráficas para que se vean bien en la imagen.</t>
+  </si>
+  <si>
+    <t>Pregunta 5, la tabla se encuentra en el archivo Word adjunto, ajustar tamaño de las gráficas para que se vean bien en la imagen.</t>
   </si>
 </sst>
 </file>
@@ -1909,40 +1810,52 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
+      <xdr:colOff>266700</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>2005965</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>728980</xdr:rowOff>
+      <xdr:rowOff>4657725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1"/>
-        <xdr:cNvPicPr/>
+        <xdr:cNvPr id="27" name="Imagen 26"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect l="6874" t="29876" r="74121" b="55374"/>
-        <a:stretch/>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="16819563" y="2166938"/>
-          <a:ext cx="1561465" cy="681355"/>
+          <a:off x="16630650" y="2276475"/>
+          <a:ext cx="11782425" cy="4514850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
+        <a:noFill/>
         <a:extLst>
-          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
@@ -1952,40 +1865,52 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>492125</xdr:colOff>
+      <xdr:colOff>104775</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>1619885</xdr:colOff>
+      <xdr:colOff>2209800</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>850900</xdr:rowOff>
+      <xdr:rowOff>590550</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2"/>
-        <xdr:cNvPicPr/>
+        <xdr:cNvPr id="28" name="Imagen 27"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect l="30675" t="35802" r="37208" b="22694"/>
-        <a:stretch/>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="16867188" y="3024188"/>
-          <a:ext cx="1127760" cy="819150"/>
+          <a:off x="16468725" y="7143750"/>
+          <a:ext cx="2105025" cy="495300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
+        <a:noFill/>
         <a:extLst>
-          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
@@ -1995,40 +1920,52 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>484187</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>984250</xdr:rowOff>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>1756092</xdr:colOff>
+      <xdr:colOff>2181225</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>843280</xdr:rowOff>
+      <xdr:rowOff>647700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagen 3"/>
-        <xdr:cNvPicPr/>
+        <xdr:cNvPr id="29" name="Imagen 28"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect l="30037" t="31262" r="38018" b="27514"/>
-        <a:stretch/>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="16859250" y="3976688"/>
-          <a:ext cx="1271905" cy="922655"/>
+          <a:off x="16449675" y="7896225"/>
+          <a:ext cx="2095500" cy="495300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
+        <a:noFill/>
         <a:extLst>
-          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
@@ -2038,40 +1975,52 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>357187</xdr:colOff>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>1791652</xdr:colOff>
+      <xdr:colOff>2190750</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>1089660</xdr:rowOff>
+      <xdr:rowOff>628650</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Imagen 4"/>
-        <xdr:cNvPicPr/>
+        <xdr:cNvPr id="30" name="Imagen 29"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:srcRect l="29554" t="31550" r="38497" b="27798"/>
-        <a:stretch/>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="16732250" y="4976813"/>
-          <a:ext cx="1434465" cy="1026160"/>
+          <a:off x="16459200" y="8658225"/>
+          <a:ext cx="2095500" cy="495300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
+        <a:noFill/>
         <a:extLst>
-          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
@@ -2081,40 +2030,52 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>388937</xdr:colOff>
+      <xdr:colOff>434012</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>150813</xdr:rowOff>
+      <xdr:rowOff>485775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1872297</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>811213</xdr:rowOff>
+      <xdr:rowOff>4648200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Imagen 5"/>
-        <xdr:cNvPicPr/>
+        <xdr:cNvPr id="31" name="Imagen 30"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:srcRect l="7031" t="32108" r="69637" b="49412"/>
-        <a:stretch/>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="16764000" y="6199188"/>
-          <a:ext cx="1483360" cy="660400"/>
+          <a:off x="16797962" y="9667875"/>
+          <a:ext cx="8729038" cy="4162425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
+        <a:noFill/>
         <a:extLst>
-          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
@@ -2124,40 +2085,52 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>500062</xdr:colOff>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:rowOff>419100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1767522</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>891540</xdr:rowOff>
+      <xdr:rowOff>4307872</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Imagen 6"/>
-        <xdr:cNvPicPr/>
+        <xdr:cNvPr id="34" name="Imagen 33"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:srcRect l="35464" t="29557" r="30029" b="30360"/>
-        <a:stretch/>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="16875125" y="7104063"/>
-          <a:ext cx="1267460" cy="828040"/>
+          <a:off x="16592550" y="14392275"/>
+          <a:ext cx="9515474" cy="3888772"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
+        <a:noFill/>
         <a:extLst>
-          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
@@ -2167,40 +2140,52 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>508000</xdr:colOff>
+      <xdr:colOff>116416</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>79375</xdr:rowOff>
+      <xdr:rowOff>330888</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1844675</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>640291</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>984885</xdr:rowOff>
+      <xdr:rowOff>3771899</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Imagen 7"/>
-        <xdr:cNvPicPr/>
+        <xdr:cNvPr id="35" name="Imagen 34"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:srcRect l="35464" t="28707" r="29391" b="28946"/>
-        <a:stretch/>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="16883063" y="8064500"/>
-          <a:ext cx="1336675" cy="905510"/>
+          <a:off x="16478249" y="19052805"/>
+          <a:ext cx="7731125" cy="3441011"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
+        <a:noFill/>
         <a:extLst>
-          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
@@ -2210,40 +2195,52 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>1016001</xdr:rowOff>
+      <xdr:colOff>179917</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>129936</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1872615</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>56092</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>885508</xdr:rowOff>
+      <xdr:rowOff>4734983</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Imagen 8"/>
-        <xdr:cNvPicPr/>
+        <xdr:cNvPr id="36" name="Imagen 35"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:srcRect l="35318" t="28414" r="29841" b="28105"/>
-        <a:stretch/>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="16883063" y="9001126"/>
-          <a:ext cx="1364615" cy="956945"/>
+          <a:off x="16541750" y="22810019"/>
+          <a:ext cx="11210925" cy="4605047"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
+        <a:noFill/>
         <a:extLst>
-          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
@@ -2253,685 +2250,52 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>420687</xdr:colOff>
+      <xdr:colOff>402166</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:rowOff>173442</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1889442</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>370417</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>1038225</xdr:rowOff>
+      <xdr:rowOff>4807228</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Imagen 9"/>
-        <xdr:cNvPicPr/>
+        <xdr:cNvPr id="37" name="Imagen 36"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:srcRect l="7349" t="29858" r="73162" b="47138"/>
-        <a:stretch/>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="16795750" y="10088563"/>
-          <a:ext cx="1468755" cy="974725"/>
+          <a:off x="16763999" y="27986442"/>
+          <a:ext cx="10477501" cy="4633786"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
+        <a:noFill/>
         <a:extLst>
-          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>365125</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>1166813</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1930400</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>1020763</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Imagen 10"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:srcRect l="32439" t="33529" r="33840" b="25813"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="16740188" y="11191876"/>
-          <a:ext cx="1565275" cy="1060450"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>595312</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1960562</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>904875</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Imagen 11"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-        <a:srcRect l="32441" t="34665" r="33520" b="25830"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="16970375" y="12271375"/>
-          <a:ext cx="1365250" cy="904875"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>420688</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1895793</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>1123632</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Imagen 12"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
-        <a:srcRect l="32282" t="34097" r="33983" b="26965"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="16795751" y="13398500"/>
-          <a:ext cx="1475105" cy="956945"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>7937</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1920875</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>870267</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Imagen 13"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
-        <a:srcRect l="7196" t="29551" r="70265" b="49705"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="16629063" y="14414500"/>
-          <a:ext cx="1666875" cy="862330"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>452438</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>87313</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1936750</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>976313</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Imagen 14"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
-        <a:srcRect l="35154" t="31824" r="31115" b="25832"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="16827501" y="15406688"/>
-          <a:ext cx="1484312" cy="889000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>119063</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1731010</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>982663</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Imagen 15"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
-        <a:srcRect l="35314" t="32108" r="31607" b="25814"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="16898938" y="16525876"/>
-          <a:ext cx="1207135" cy="863600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>468313</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>15875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1770698</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>966470</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Imagen 16"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
-        <a:srcRect l="35145" t="31540" r="31146" b="24700"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="16843376" y="17668875"/>
-          <a:ext cx="1302385" cy="950595"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>412750</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>119063</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1922145</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>764223</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Imagen 17"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
-        <a:srcRect l="7190" t="32123" r="68530" b="49401"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="16787813" y="18780126"/>
-          <a:ext cx="1509395" cy="645160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>587376</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1690688</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>730250</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Imagen 18"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
-        <a:srcRect l="36272" t="30404" r="28255" b="28675"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="16962439" y="19756438"/>
-          <a:ext cx="1103312" cy="666750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>746126</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>15875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1666876</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>579437</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Imagen 19"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
-        <a:srcRect l="36594" t="30404" r="29691" b="24696"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="17121189" y="20566063"/>
-          <a:ext cx="920750" cy="563562"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>714375</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1833562</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>801688</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="Imagen 20"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
-        <a:srcRect l="36586" t="28982" r="30023" b="24115"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="17089438" y="21399500"/>
-          <a:ext cx="1119187" cy="801688"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>777875</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>166688</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1726565</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>872808</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="Imagen 21"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
-        <a:srcRect l="7196" t="37513" r="75213" b="39183"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="17152938" y="22455188"/>
-          <a:ext cx="948690" cy="706120"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>492125</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>39687</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1586230</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>721042</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="Imagen 22"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
-        <a:srcRect l="30356" t="35234" r="35769" b="27241"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="16867188" y="23360062"/>
-          <a:ext cx="1094105" cy="681355"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1446530</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>755015</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="Imagen 23"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
-        <a:srcRect l="30359" t="27278" r="36560" b="30647"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="16898938" y="24217313"/>
-          <a:ext cx="922655" cy="659765"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>738188</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>87313</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1553528</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>648018</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="Imagen 24"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
-        <a:srcRect l="30206" t="28414" r="36548" b="30947"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="17113251" y="25074563"/>
-          <a:ext cx="815340" cy="560705"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
@@ -3656,9 +3020,9 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:P108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="140" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="140" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -3740,7 +3104,7 @@
       </c>
       <c r="D3" s="88"/>
       <c r="F3" s="80">
-        <v>42457</v>
+        <v>42458</v>
       </c>
       <c r="G3" s="81"/>
       <c r="H3" s="58"/>
@@ -3799,7 +3163,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="89" t="s">
-        <v>238</v>
+        <v>198</v>
       </c>
       <c r="D5" s="90"/>
       <c r="E5" s="5"/>
@@ -3856,7 +3220,7 @@
         <v>40</v>
       </c>
       <c r="C7" s="74" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="D7" s="23" t="s">
         <v>39</v>
@@ -3946,27 +3310,27 @@
         <v>M10B</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="11" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" s="11" customFormat="1" ht="387" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="str">
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),"IMG01","")</f>
         <v>IMG01</v>
       </c>
       <c r="B10" s="62" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C10" s="20" t="str">
         <f t="shared" ref="C10:C41" si="0">IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Recurso M7A</v>
       </c>
       <c r="D10" s="63" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E10" s="63" t="s">
         <v>155</v>
       </c>
       <c r="F10" s="13" t="str">
         <f t="shared" ref="F10" ca="1" si="1">IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I10="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v>MA_08_11_REC90_IMG01n.png</v>
+        <v>MA_08_11_CO_REC90_IMG01n.png</v>
       </c>
       <c r="G10" s="13" t="str">
         <f ca="1">IF($F10&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E10,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
@@ -3974,14 +3338,14 @@
       </c>
       <c r="H10" s="13" t="str">
         <f t="shared" ref="H10" ca="1" si="2">IF(AND(I10&lt;&gt;"",I10&lt;&gt;0),IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
-        <v>MA_08_11_REC90_IMG01a.png</v>
+        <v>MA_08_11_CO_REC90_IMG01a.png</v>
       </c>
       <c r="I10" s="13" t="str">
         <f ca="1">IF(OR($B10&lt;&gt;"",$J10&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E10,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E10,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>500 x 500 px</v>
       </c>
       <c r="J10" s="63" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="K10" s="64"/>
       <c r="O10" s="2" t="str">
@@ -3989,27 +3353,27 @@
         <v>M12D</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="11" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" s="11" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="str">
         <f t="shared" ref="A11:A18" si="3">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE(LEFT(A10,3),IF(MID(A10,4,2)+1&lt;10,CONCATENATE("0",MID(A10,4,2)+1))),"")</f>
         <v>IMG02</v>
       </c>
       <c r="B11" s="62" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C11" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Recurso M7A</v>
       </c>
       <c r="D11" s="63" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E11" s="63" t="s">
         <v>67</v>
       </c>
       <c r="F11" s="13" t="str">
         <f t="shared" ref="F11:F74" ca="1" si="4">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I11="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v>MA_08_11_REC90_IMG02.png</v>
+        <v>MA_08_11_CO_REC90_IMG02.png</v>
       </c>
       <c r="G11" s="13" t="str">
         <f ca="1">IF($F11&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E11,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
@@ -4024,7 +3388,7 @@
         <v/>
       </c>
       <c r="J11" s="64" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="K11" s="65"/>
       <c r="O11" s="2" t="str">
@@ -4032,27 +3396,27 @@
         <v>M101</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="11" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" s="11" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="str">
         <f t="shared" si="3"/>
         <v>IMG03</v>
       </c>
       <c r="B12" s="62" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C12" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Recurso M7A</v>
       </c>
       <c r="D12" s="63" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E12" s="63" t="s">
         <v>67</v>
       </c>
       <c r="F12" s="13" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>MA_08_11_REC90_IMG03.png</v>
+        <v>MA_08_11_CO_REC90_IMG03.png</v>
       </c>
       <c r="G12" s="13" t="str">
         <f ca="1">IF($F12&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E12,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
@@ -4067,7 +3431,7 @@
         <v/>
       </c>
       <c r="J12" s="64" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="K12" s="64"/>
       <c r="O12" s="2" t="str">
@@ -4075,27 +3439,27 @@
         <v>Diaporama F1</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="11" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" s="11" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="str">
         <f t="shared" si="3"/>
         <v>IMG04</v>
       </c>
       <c r="B13" s="62" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C13" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Recurso M7A</v>
       </c>
       <c r="D13" s="63" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E13" s="63" t="s">
         <v>67</v>
       </c>
       <c r="F13" s="13" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>MA_08_11_REC90_IMG04.png</v>
+        <v>MA_08_11_CO_REC90_IMG04.png</v>
       </c>
       <c r="G13" s="13" t="str">
         <f ca="1">IF($F13&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E13,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
@@ -4110,7 +3474,7 @@
         <v/>
       </c>
       <c r="J13" s="64" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="K13" s="64"/>
       <c r="O13" s="2" t="str">
@@ -4118,27 +3482,27 @@
         <v>F4</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="11" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" s="11" customFormat="1" ht="377.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="str">
         <f t="shared" si="3"/>
         <v>IMG05</v>
       </c>
       <c r="B14" s="62" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C14" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Recurso M7A</v>
       </c>
       <c r="D14" s="63" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E14" s="63" t="s">
         <v>155</v>
       </c>
       <c r="F14" s="13" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>MA_08_11_REC90_IMG05n.png</v>
+        <v>MA_08_11_CO_REC90_IMG05n.png</v>
       </c>
       <c r="G14" s="13" t="str">
         <f ca="1">IF($F14&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E14,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
@@ -4146,14 +3510,14 @@
       </c>
       <c r="H14" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>MA_08_11_REC90_IMG05a.png</v>
+        <v>MA_08_11_CO_REC90_IMG05a.png</v>
       </c>
       <c r="I14" s="13" t="str">
         <f ca="1">IF(OR($B14&lt;&gt;"",$J14&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E14,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E14,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>500 x 500 px</v>
       </c>
       <c r="J14" s="64" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="K14" s="64"/>
       <c r="O14" s="2" t="str">
@@ -4161,42 +3525,42 @@
         <v>F6</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="11" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" s="11" customFormat="1" ht="372.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="str">
         <f t="shared" si="3"/>
         <v>IMG06</v>
       </c>
       <c r="B15" s="62" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C15" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Recurso M7A</v>
       </c>
       <c r="D15" s="63" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E15" s="63" t="s">
-        <v>67</v>
+        <v>155</v>
       </c>
       <c r="F15" s="13" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>MA_08_11_REC90_IMG06.png</v>
+        <v>MA_08_11_CO_REC90_IMG06n.png</v>
       </c>
       <c r="G15" s="13" t="str">
         <f ca="1">IF($F15&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E15,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>110 x 110 px</v>
+        <v>286 x 286 px</v>
       </c>
       <c r="H15" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>MA_08_11_CO_REC90_IMG06a.png</v>
       </c>
       <c r="I15" s="13" t="str">
         <f ca="1">IF(OR($B15&lt;&gt;"",$J15&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E15,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E15,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
+        <v>500 x 500 px</v>
       </c>
       <c r="J15" s="66" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K15" s="66"/>
       <c r="O15" s="2" t="str">
@@ -4204,42 +3568,42 @@
         <v>F6B</v>
       </c>
     </row>
-    <row r="16" spans="1:16" s="11" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" s="11" customFormat="1" ht="311.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="str">
         <f t="shared" si="3"/>
         <v>IMG07</v>
       </c>
       <c r="B16" s="62" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C16" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Recurso M7A</v>
       </c>
       <c r="D16" s="63" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E16" s="63" t="s">
-        <v>67</v>
+        <v>155</v>
       </c>
       <c r="F16" s="13" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>MA_08_11_REC90_IMG07.png</v>
+        <v>MA_08_11_CO_REC90_IMG07n.png</v>
       </c>
       <c r="G16" s="13" t="str">
         <f ca="1">IF($F16&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E16,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>110 x 110 px</v>
+        <v>286 x 286 px</v>
       </c>
       <c r="H16" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>MA_08_11_CO_REC90_IMG07a.png</v>
       </c>
       <c r="I16" s="13" t="str">
         <f ca="1">IF(OR($B16&lt;&gt;"",$J16&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E16,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E16,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
+        <v>500 x 500 px</v>
       </c>
       <c r="J16" s="67" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K16" s="68"/>
       <c r="O16" s="2" t="str">
@@ -4247,42 +3611,42 @@
         <v>F7</v>
       </c>
     </row>
-    <row r="17" spans="1:15" s="11" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" s="11" customFormat="1" ht="404.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="str">
         <f t="shared" si="3"/>
         <v>IMG08</v>
       </c>
       <c r="B17" s="62" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="C17" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Recurso M7A</v>
       </c>
       <c r="D17" s="63" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E17" s="63" t="s">
-        <v>67</v>
+        <v>155</v>
       </c>
       <c r="F17" s="13" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>MA_08_11_REC90_IMG08.png</v>
+        <v>MA_08_11_CO_REC90_IMG08n.png</v>
       </c>
       <c r="G17" s="13" t="str">
         <f ca="1">IF($F17&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E17,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>110 x 110 px</v>
+        <v>286 x 286 px</v>
       </c>
       <c r="H17" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>MA_08_11_CO_REC90_IMG08a.png</v>
       </c>
       <c r="I17" s="13" t="str">
         <f ca="1">IF(OR($B17&lt;&gt;"",$J17&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E17,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E17,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
+        <v>500 x 500 px</v>
       </c>
       <c r="J17" s="66" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K17" s="66"/>
       <c r="O17" s="2" t="str">
@@ -4290,27 +3654,27 @@
         <v>F7B</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="11" customFormat="1" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" s="11" customFormat="1" ht="389.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="str">
         <f t="shared" si="3"/>
         <v>IMG09</v>
       </c>
       <c r="B18" s="62" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="C18" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Recurso M7A</v>
       </c>
       <c r="D18" s="63" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E18" s="63" t="s">
         <v>155</v>
       </c>
       <c r="F18" s="13" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>MA_08_11_REC90_IMG09n.png</v>
+        <v>MA_08_11_CO_REC90_IMG09n.png</v>
       </c>
       <c r="G18" s="13" t="str">
         <f ca="1">IF($F18&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E18,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
@@ -4318,14 +3682,14 @@
       </c>
       <c r="H18" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>MA_08_11_REC90_IMG09a.png</v>
+        <v>MA_08_11_CO_REC90_IMG09a.png</v>
       </c>
       <c r="I18" s="13" t="str">
         <f ca="1">IF(OR($B18&lt;&gt;"",$J18&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E18,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E18,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>500 x 500 px</v>
       </c>
       <c r="J18" s="66" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K18" s="66"/>
       <c r="O18" s="2" t="str">
@@ -4333,31 +3697,25 @@
         <v>F8</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="11" customFormat="1" ht="81.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="str">
         <f t="shared" ref="A19:A50" si="6">IF(OR(B19&lt;&gt;"",J19&lt;&gt;""),CONCATENATE(LEFT(A18,3),IF(MID(A18,4,2)+1&lt;10,CONCATENATE("0",MID(A18,4,2)+1),MID(A18,4,2)+1)),"")</f>
-        <v>IMG10</v>
-      </c>
-      <c r="B19" s="62" t="s">
-        <v>208</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B19" s="62"/>
       <c r="C19" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>Recurso M7A</v>
-      </c>
-      <c r="D19" s="63" t="s">
-        <v>190</v>
-      </c>
-      <c r="E19" s="63" t="s">
-        <v>67</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
       <c r="F19" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>MA_08_11_REC90_IMG10.png</v>
+        <f t="shared" si="4"/>
+        <v/>
       </c>
       <c r="G19" s="13" t="str">
         <f ca="1">IF($F19&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E19,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>110 x 110 px</v>
+        <v/>
       </c>
       <c r="H19" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -4367,40 +3725,32 @@
         <f ca="1">IF(OR($B19&lt;&gt;"",$J19&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E19,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E19,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J19" s="67" t="s">
-        <v>209</v>
-      </c>
+      <c r="J19" s="67"/>
       <c r="K19" s="68"/>
       <c r="O19" s="2" t="str">
         <f>'Definición técnica de imagenes'!A31</f>
         <v>F10</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="11" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>IMG11</v>
-      </c>
-      <c r="B20" s="62" t="s">
-        <v>210</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B20" s="62"/>
       <c r="C20" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>Recurso M7A</v>
-      </c>
-      <c r="D20" s="63" t="s">
-        <v>190</v>
-      </c>
-      <c r="E20" s="63" t="s">
-        <v>67</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
       <c r="F20" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>MA_08_11_REC90_IMG11.png</v>
+        <f t="shared" si="4"/>
+        <v/>
       </c>
       <c r="G20" s="13" t="str">
         <f ca="1">IF($F20&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E20,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>110 x 110 px</v>
+        <v/>
       </c>
       <c r="H20" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -4410,40 +3760,32 @@
         <f ca="1">IF(OR($B20&lt;&gt;"",$J20&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E20,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E20,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J20" s="64" t="s">
-        <v>212</v>
-      </c>
+      <c r="J20" s="64"/>
       <c r="K20" s="66"/>
       <c r="O20" s="2" t="str">
         <f>'Definición técnica de imagenes'!A32</f>
         <v>F10B</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="11" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>IMG12</v>
-      </c>
-      <c r="B21" s="62" t="s">
-        <v>211</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B21" s="62"/>
       <c r="C21" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>Recurso M7A</v>
-      </c>
-      <c r="D21" s="63" t="s">
-        <v>190</v>
-      </c>
-      <c r="E21" s="63" t="s">
-        <v>67</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
       <c r="F21" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>MA_08_11_REC90_IMG12.png</v>
+        <f t="shared" si="4"/>
+        <v/>
       </c>
       <c r="G21" s="13" t="str">
         <f ca="1">IF($F21&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E21,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>110 x 110 px</v>
+        <v/>
       </c>
       <c r="H21" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -4453,83 +3795,67 @@
         <f ca="1">IF(OR($B21&lt;&gt;"",$J21&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E21,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E21,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J21" s="66" t="s">
-        <v>213</v>
-      </c>
+      <c r="J21" s="66"/>
       <c r="K21" s="66"/>
       <c r="O21" s="2" t="str">
         <f>'Definición técnica de imagenes'!A33</f>
         <v>F11</v>
       </c>
     </row>
-    <row r="22" spans="1:15" s="11" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" s="11" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>IMG13</v>
-      </c>
-      <c r="B22" s="62" t="s">
-        <v>214</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B22" s="62"/>
       <c r="C22" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>Recurso M7A</v>
-      </c>
-      <c r="D22" s="63" t="s">
-        <v>190</v>
-      </c>
-      <c r="E22" s="63" t="s">
-        <v>155</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
       <c r="F22" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>MA_08_11_REC90_IMG13n.png</v>
+        <f t="shared" si="4"/>
+        <v/>
       </c>
       <c r="G22" s="13" t="str">
         <f ca="1">IF($F22&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E22,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>286 x 286 px</v>
+        <v/>
       </c>
       <c r="H22" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>MA_08_11_REC90_IMG13a.png</v>
+        <v/>
       </c>
       <c r="I22" s="13" t="str">
         <f ca="1">IF(OR($B22&lt;&gt;"",$J22&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E22,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E22,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v>500 x 500 px</v>
-      </c>
-      <c r="J22" s="63" t="s">
-        <v>215</v>
-      </c>
+        <v/>
+      </c>
+      <c r="J22" s="63"/>
       <c r="K22" s="69"/>
       <c r="O22" s="2" t="str">
         <f>'Definición técnica de imagenes'!A34</f>
         <v>F12</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="11" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" s="11" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>IMG14</v>
-      </c>
-      <c r="B23" s="62" t="s">
-        <v>216</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B23" s="62"/>
       <c r="C23" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>Recurso M7A</v>
-      </c>
-      <c r="D23" s="63" t="s">
-        <v>190</v>
-      </c>
-      <c r="E23" s="63" t="s">
-        <v>67</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
       <c r="F23" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>MA_08_11_REC90_IMG14.png</v>
+        <f t="shared" si="4"/>
+        <v/>
       </c>
       <c r="G23" s="13" t="str">
         <f ca="1">IF($F23&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E23,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>110 x 110 px</v>
+        <v/>
       </c>
       <c r="H23" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -4539,40 +3865,32 @@
         <f ca="1">IF(OR($B23&lt;&gt;"",$J23&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E23,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E23,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J23" s="64" t="s">
-        <v>217</v>
-      </c>
+      <c r="J23" s="64"/>
       <c r="K23" s="64"/>
       <c r="O23" s="2" t="str">
         <f>'Definición técnica de imagenes'!A35</f>
         <v>F13</v>
       </c>
     </row>
-    <row r="24" spans="1:15" s="11" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>IMG15</v>
-      </c>
-      <c r="B24" s="62" t="s">
-        <v>218</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B24" s="62"/>
       <c r="C24" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>Recurso M7A</v>
-      </c>
-      <c r="D24" s="63" t="s">
-        <v>190</v>
-      </c>
-      <c r="E24" s="63" t="s">
-        <v>67</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D24" s="63"/>
+      <c r="E24" s="63"/>
       <c r="F24" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>MA_08_11_REC90_IMG15.png</v>
+        <f t="shared" si="4"/>
+        <v/>
       </c>
       <c r="G24" s="13" t="str">
         <f ca="1">IF($F24&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E24,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>110 x 110 px</v>
+        <v/>
       </c>
       <c r="H24" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -4582,40 +3900,32 @@
         <f ca="1">IF(OR($B24&lt;&gt;"",$J24&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E24,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E24,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J24" s="63" t="s">
-        <v>221</v>
-      </c>
+      <c r="J24" s="63"/>
       <c r="K24" s="65"/>
       <c r="O24" s="2" t="str">
         <f>'Definición técnica de imagenes'!A37</f>
         <v>F13B</v>
       </c>
     </row>
-    <row r="25" spans="1:15" s="11" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" s="11" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>IMG16</v>
-      </c>
-      <c r="B25" s="62" t="s">
-        <v>219</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B25" s="62"/>
       <c r="C25" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>Recurso M7A</v>
-      </c>
-      <c r="D25" s="63" t="s">
-        <v>190</v>
-      </c>
-      <c r="E25" s="63" t="s">
-        <v>67</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D25" s="63"/>
+      <c r="E25" s="63"/>
       <c r="F25" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>MA_08_11_REC90_IMG16.png</v>
+        <f t="shared" si="4"/>
+        <v/>
       </c>
       <c r="G25" s="13" t="str">
         <f ca="1">IF($F25&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E25,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>110 x 110 px</v>
+        <v/>
       </c>
       <c r="H25" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -4625,75 +3935,59 @@
         <f ca="1">IF(OR($B25&lt;&gt;"",$J25&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E25,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E25,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J25" s="63" t="s">
-        <v>220</v>
-      </c>
+      <c r="J25" s="63"/>
       <c r="K25" s="64"/>
     </row>
     <row r="26" spans="1:15" s="11" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>IMG17</v>
-      </c>
-      <c r="B26" s="62" t="s">
-        <v>222</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B26" s="62"/>
       <c r="C26" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>Recurso M7A</v>
-      </c>
-      <c r="D26" s="63" t="s">
-        <v>190</v>
-      </c>
-      <c r="E26" s="63" t="s">
-        <v>155</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
       <c r="F26" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>MA_08_11_REC90_IMG17n.png</v>
+        <f t="shared" si="4"/>
+        <v/>
       </c>
       <c r="G26" s="13" t="str">
         <f ca="1">IF($F26&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E26,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>286 x 286 px</v>
+        <v/>
       </c>
       <c r="H26" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>MA_08_11_REC90_IMG17a.png</v>
+        <v/>
       </c>
       <c r="I26" s="13" t="str">
         <f ca="1">IF(OR($B26&lt;&gt;"",$J26&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E26,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E26,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v>500 x 500 px</v>
-      </c>
-      <c r="J26" s="63" t="s">
-        <v>223</v>
-      </c>
+        <v/>
+      </c>
+      <c r="J26" s="63"/>
       <c r="K26" s="64"/>
     </row>
     <row r="27" spans="1:15" s="11" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>IMG18</v>
-      </c>
-      <c r="B27" s="62" t="s">
-        <v>224</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B27" s="62"/>
       <c r="C27" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>Recurso M7A</v>
-      </c>
-      <c r="D27" s="63" t="s">
-        <v>190</v>
-      </c>
-      <c r="E27" s="63" t="s">
-        <v>67</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D27" s="63"/>
+      <c r="E27" s="63"/>
       <c r="F27" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>MA_08_11_REC90_IMG18.png</v>
+        <f t="shared" si="4"/>
+        <v/>
       </c>
       <c r="G27" s="13" t="str">
         <f ca="1">IF($F27&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E27,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>110 x 110 px</v>
+        <v/>
       </c>
       <c r="H27" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -4703,37 +3997,29 @@
         <f ca="1">IF(OR($B27&lt;&gt;"",$J27&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E27,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E27,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J27" s="64" t="s">
-        <v>225</v>
-      </c>
+      <c r="J27" s="64"/>
       <c r="K27" s="64"/>
       <c r="O27" s="2"/>
     </row>
     <row r="28" spans="1:15" s="11" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>IMG19</v>
-      </c>
-      <c r="B28" s="62" t="s">
-        <v>227</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B28" s="62"/>
       <c r="C28" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>Recurso M7A</v>
-      </c>
-      <c r="D28" s="63" t="s">
-        <v>190</v>
-      </c>
-      <c r="E28" s="63" t="s">
-        <v>67</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D28" s="63"/>
+      <c r="E28" s="63"/>
       <c r="F28" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>MA_08_11_REC90_IMG19.png</v>
+        <f t="shared" si="4"/>
+        <v/>
       </c>
       <c r="G28" s="13" t="str">
         <f ca="1">IF($F28&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E28,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>110 x 110 px</v>
+        <v/>
       </c>
       <c r="H28" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -4743,36 +4029,28 @@
         <f ca="1">IF(OR($B28&lt;&gt;"",$J28&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E28,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E28,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J28" s="64" t="s">
-        <v>228</v>
-      </c>
+      <c r="J28" s="64"/>
       <c r="K28" s="64"/>
     </row>
     <row r="29" spans="1:15" s="11" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>IMG20</v>
-      </c>
-      <c r="B29" s="62" t="s">
-        <v>226</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B29" s="62"/>
       <c r="C29" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>Recurso M7A</v>
-      </c>
-      <c r="D29" s="63" t="s">
-        <v>190</v>
-      </c>
-      <c r="E29" s="63" t="s">
-        <v>67</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
       <c r="F29" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>MA_08_11_REC90_IMG20.png</v>
+        <f t="shared" si="4"/>
+        <v/>
       </c>
       <c r="G29" s="13" t="str">
         <f ca="1">IF($F29&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E29,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>110 x 110 px</v>
+        <v/>
       </c>
       <c r="H29" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -4782,75 +4060,59 @@
         <f ca="1">IF(OR($B29&lt;&gt;"",$J29&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E29,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E29,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J29" s="64" t="s">
-        <v>229</v>
-      </c>
+      <c r="J29" s="64"/>
       <c r="K29" s="64"/>
     </row>
     <row r="30" spans="1:15" s="11" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>IMG21</v>
-      </c>
-      <c r="B30" s="62" t="s">
-        <v>230</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B30" s="62"/>
       <c r="C30" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>Recurso M7A</v>
-      </c>
-      <c r="D30" s="63" t="s">
-        <v>190</v>
-      </c>
-      <c r="E30" s="63" t="s">
-        <v>155</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D30" s="63"/>
+      <c r="E30" s="63"/>
       <c r="F30" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>MA_08_11_REC90_IMG21n.png</v>
+        <f t="shared" si="4"/>
+        <v/>
       </c>
       <c r="G30" s="13" t="str">
         <f ca="1">IF($F30&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E30,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>286 x 286 px</v>
+        <v/>
       </c>
       <c r="H30" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>MA_08_11_REC90_IMG21a.png</v>
+        <v/>
       </c>
       <c r="I30" s="13" t="str">
         <f ca="1">IF(OR($B30&lt;&gt;"",$J30&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E30,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E30,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v>500 x 500 px</v>
-      </c>
-      <c r="J30" s="64" t="s">
-        <v>231</v>
-      </c>
+        <v/>
+      </c>
+      <c r="J30" s="64"/>
       <c r="K30" s="64"/>
     </row>
     <row r="31" spans="1:15" s="11" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>IMG22</v>
-      </c>
-      <c r="B31" s="62" t="s">
-        <v>233</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B31" s="62"/>
       <c r="C31" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>Recurso M7A</v>
-      </c>
-      <c r="D31" s="63" t="s">
-        <v>190</v>
-      </c>
-      <c r="E31" s="63" t="s">
-        <v>67</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D31" s="63"/>
+      <c r="E31" s="63"/>
       <c r="F31" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>MA_08_11_REC90_IMG22.png</v>
+        <f t="shared" si="4"/>
+        <v/>
       </c>
       <c r="G31" s="13" t="str">
         <f ca="1">IF($F31&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E31,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>110 x 110 px</v>
+        <v/>
       </c>
       <c r="H31" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -4860,36 +4122,28 @@
         <f ca="1">IF(OR($B31&lt;&gt;"",$J31&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E31,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E31,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J31" s="64" t="s">
-        <v>232</v>
-      </c>
+      <c r="J31" s="64"/>
       <c r="K31" s="64"/>
     </row>
     <row r="32" spans="1:15" s="11" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>IMG23</v>
-      </c>
-      <c r="B32" s="62" t="s">
-        <v>234</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B32" s="62"/>
       <c r="C32" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>Recurso M7A</v>
-      </c>
-      <c r="D32" s="63" t="s">
-        <v>190</v>
-      </c>
-      <c r="E32" s="63" t="s">
-        <v>67</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D32" s="63"/>
+      <c r="E32" s="63"/>
       <c r="F32" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>MA_08_11_REC90_IMG23.png</v>
+        <f t="shared" si="4"/>
+        <v/>
       </c>
       <c r="G32" s="13" t="str">
         <f ca="1">IF($F32&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E32,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>110 x 110 px</v>
+        <v/>
       </c>
       <c r="H32" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -4899,36 +4153,28 @@
         <f ca="1">IF(OR($B32&lt;&gt;"",$J32&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E32,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E32,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J32" s="64" t="s">
-        <v>236</v>
-      </c>
+      <c r="J32" s="64"/>
       <c r="K32" s="64"/>
     </row>
     <row r="33" spans="1:15" s="11" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>IMG24</v>
-      </c>
-      <c r="B33" s="62" t="s">
-        <v>235</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B33" s="62"/>
       <c r="C33" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>Recurso M7A</v>
-      </c>
-      <c r="D33" s="63" t="s">
-        <v>190</v>
-      </c>
-      <c r="E33" s="63" t="s">
-        <v>67</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D33" s="63"/>
+      <c r="E33" s="63"/>
       <c r="F33" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>MA_08_11_REC90_IMG24.png</v>
+        <f t="shared" si="4"/>
+        <v/>
       </c>
       <c r="G33" s="13" t="str">
         <f ca="1">IF($F33&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E33,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>110 x 110 px</v>
+        <v/>
       </c>
       <c r="H33" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -4938,9 +4184,7 @@
         <f ca="1">IF(OR($B33&lt;&gt;"",$J33&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E33,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E33,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J33" s="64" t="s">
-        <v>237</v>
-      </c>
+      <c r="J33" s="64"/>
       <c r="K33" s="64"/>
     </row>
     <row r="34" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
